--- a/data/Simon/Params_script.xlsx
+++ b/data/Simon/Params_script.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Parametres</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Retour</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>idPortail</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -141,13 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,46 +464,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,6 +552,40 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/Simon/Params_script.xlsx
+++ b/data/Simon/Params_script.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Parametres</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -451,15 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,6 +596,40 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/Simon/Params_script.xlsx
+++ b/data/Simon/Params_script.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Parametres</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>Authentification</t>
+  </si>
+  <si>
+    <t>Ajout carte</t>
+  </si>
+  <si>
+    <t>Liste les articles</t>
+  </si>
+  <si>
+    <t>ajoute un article</t>
+  </si>
+  <si>
+    <t>ajoute un portail</t>
+  </si>
+  <si>
+    <t>Liste les portails</t>
+  </si>
+  <si>
+    <t>Ajoute un utilisateur</t>
   </si>
 </sst>
 </file>
@@ -460,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +494,7 @@
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -484,7 +505,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -499,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -516,7 +537,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,8 +551,11 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -549,8 +573,11 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -563,7 +590,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -579,8 +606,11 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -596,8 +626,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -613,8 +646,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -630,6 +666,29 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/Simon/Params_script.xlsx
+++ b/data/Simon/Params_script.xlsx
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Simon/Params_script.xlsx
+++ b/data/Simon/Params_script.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Parametres</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Ajoute un utilisateur</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>Liste les cartes d'un utilisateur</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,23 +657,23 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -675,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -687,6 +693,26 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/Simon/Params_script.xlsx
+++ b/data/Simon/Params_script.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Parametres</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Liste les cartes d'un utilisateur</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>idCarte</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,31 +683,28 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -713,6 +716,26 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/Simon/Params_script.xlsx
+++ b/data/Simon/Params_script.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Octo\data\Simon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\Octo\data\Simon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Parametres</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>idCarte</t>
+  </si>
+  <si>
+    <t>Récupérer la carte</t>
+  </si>
+  <si>
+    <t>Mettre à jour la carte</t>
+  </si>
+  <si>
+    <t>maj</t>
   </si>
 </sst>
 </file>
@@ -493,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,25 +707,28 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -736,6 +748,26 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" t="s">
         <v>27</v>
       </c>
     </row>
